--- a/biology/Zoologie/Icadyptes/Icadyptes.xlsx
+++ b/biology/Zoologie/Icadyptes/Icadyptes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icadyptes salasi
 Icadyptes est un  genre éteint de grands « manchots » dont la seule espèce connue, Icadyptes salasi, a vécu au Pérou à l'Éocène supérieur, au Priabonien, il y a environ 36 Ma (millions d'années).
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Icadyptes et l'espèce Icadyptes salasi ont été créés en 2007 par Julia Allison Clarke (d) et son équipe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Icadyptes et l'espèce Icadyptes salasi ont été créés en 2007 par Julia Allison Clarke (d) et son équipe.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sa hauteur était de 1,50 m avec un bec deux fois plus long que son crâne[2]. Il vivait à une époque où le climat était plus chaud qu'aujourd'hui, avant la formation des calottes glaciaires permanentes autour des pôles. Deux autres genres de manchots ont été découverts à proximité dans des strates géologiques du même âge :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sa hauteur était de 1,50 m avec un bec deux fois plus long que son crâne. Il vivait à une époque où le climat était plus chaud qu'aujourd'hui, avant la formation des calottes glaciaires permanentes autour des pôles. Deux autres genres de manchots ont été découverts à proximité dans des strates géologiques du même âge :
 † Perudyptes devriesi Clarke et al., 2007 ;
 † Inkayacu paracasensis Clarke et al., 2010.</t>
         </is>
@@ -575,10 +591,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Icadyptes est la combinaison d’Ica, faisant référence à la province d'Ica au Pérou où ont été découverts les fossiles en 2005, et du terme en grec ancien δύτης, dýtis, « plongeur »[1]. 
-L'épithète spécifique salasi, a été donnée en l'honneur du paléontologue péruvien Rodolfo Salas-Gismondi (d) pour son importante contribution à la paléontologie des vertébrés au Pérou[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Icadyptes est la combinaison d’Ica, faisant référence à la province d'Ica au Pérou où ont été découverts les fossiles en 2005, et du terme en grec ancien δύτης, dýtis, « plongeur ». 
+L'épithète spécifique salasi, a été donnée en l'honneur du paléontologue péruvien Rodolfo Salas-Gismondi (d) pour son importante contribution à la paléontologie des vertébrés au Pérou.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Julia A. Clarke, Daniel T. Ksepka, Marcelo Stucchi, Mario Urbina, Norberto Giannini, Sara Bertelli, Yanina Narváez et Clint A. Boyd, « Paleogene equatorial penguins challenge the proposed relationship between biogeography, diversity, and Cenozoic climate change », Proceedings of the National Academy of Sciences, Washington et États-Unis, NAS, vol. 104, no 28,‎ 29 juin 2007, p. 11545-11550 (ISSN 0027-8424 et 1091-6490, OCLC 43473694 et 1607201, PMID 17601778, PMCID 1913862, DOI 10.1073/PNAS.0611099104, lire en ligne)</t>
         </is>
